--- a/output/c9cf68f7-1728-415f-8027-f4bf4c988f17/c9cf68f7-1728-415f-8027-f4bf4c988f17_notes_standard_cropped_df.xlsx
+++ b/output/c9cf68f7-1728-415f-8027-f4bf4c988f17/c9cf68f7-1728-415f-8027-f4bf4c988f17_notes_standard_cropped_df.xlsx
@@ -7,20 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="5b1fa97a-a26d-3695-a" sheetId="1" r:id="rId1"/>
-    <sheet name="6179dbd7-5cac-33ab-9" sheetId="2" r:id="rId2"/>
-    <sheet name="29c71f19-706c-3b96-9" sheetId="3" r:id="rId3"/>
-    <sheet name="1c24c1ad-8ed2-3d96-8" sheetId="4" r:id="rId4"/>
-    <sheet name="1aa9caad-49d7-3aa1-a" sheetId="5" r:id="rId5"/>
-    <sheet name="15fa5e32-2817-3795-a" sheetId="6" r:id="rId6"/>
-    <sheet name="ad82a938-84a8-34e3-9" sheetId="7" r:id="rId7"/>
+    <sheet name="17__5b1fa97a-a26d-36" sheetId="1" r:id="rId1"/>
+    <sheet name="15__6179dbd7-5cac-33" sheetId="2" r:id="rId2"/>
+    <sheet name="15__29c71f19-706c-3b" sheetId="3" r:id="rId3"/>
+    <sheet name="10__1c24c1ad-8ed2-3d" sheetId="4" r:id="rId4"/>
+    <sheet name="18__5b1fa97a-a26d-36" sheetId="5" r:id="rId5"/>
+    <sheet name="11__1aa9caad-49d7-3a" sheetId="6" r:id="rId6"/>
+    <sheet name="12__15fa5e32-2817-37" sheetId="7" r:id="rId7"/>
+    <sheet name="12__ad82a938-84a8-34" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="68">
   <si>
     <t>line_item_0</t>
   </si>
@@ -49,15 +50,114 @@
     <t>Opening Balance</t>
   </si>
   <si>
+    <t>Transfer to trade receivables included in opening balance</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>(6,677)</t>
+  </si>
+  <si>
+    <t>6255</t>
+  </si>
+  <si>
+    <t>(6,255)</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Balance at 1 April 2021</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2022</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>(498)</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>(138)</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>(636)</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>Office Other Premises</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Less Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>4196</t>
+  </si>
+  <si>
+    <t>(3,069)</t>
+  </si>
+  <si>
+    <t>4021</t>
+  </si>
+  <si>
+    <t>(2,429)</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
     <t>Transfer to revenue = included in opening balance</t>
   </si>
   <si>
     <t>Increase in cash received excluding amounts recognised as revenue during the year</t>
   </si>
   <si>
-    <t>Closing balance</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -71,87 +171,6 @@
   </si>
   <si>
     <t>(177)</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Balance at 1 April 2021</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Balance at 31 March 2022</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>(498)</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>(138)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>(636)</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>Office Other Premises</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Right-of-use assets</t>
-  </si>
-  <si>
-    <t>Less Accumulated depreciation</t>
-  </si>
-  <si>
-    <t>4196</t>
-  </si>
-  <si>
-    <t>(3,069)</t>
-  </si>
-  <si>
-    <t>4021</t>
-  </si>
-  <si>
-    <t>(2,429)</t>
-  </si>
-  <si>
-    <t>1592</t>
   </si>
   <si>
     <t>Charge/credit to profit and loss</t>
@@ -869,10 +888,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -880,35 +899,35 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -919,10 +938,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -930,32 +949,32 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -966,10 +985,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -977,35 +996,35 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1043,10 +1062,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1057,10 +1076,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1071,7 +1090,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1082,10 +1101,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1096,10 +1115,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1110,7 +1129,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1138,6 +1157,284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1166,7 +1463,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1174,46 +1471,46 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1221,54 +1518,54 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1276,10 +1573,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1287,55 +1584,55 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1343,63 +1640,63 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1407,10 +1704,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1418,49 +1715,49 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1468,60 +1765,60 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1529,10 +1826,10 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1540,55 +1837,55 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -1596,78 +1893,66 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1682,4 +1967,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>